--- a/Team-Data/2007-08/3-28-2007-08.xlsx
+++ b/Team-Data/2007-08/3-28-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -687,7 +754,7 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L2" t="n">
         <v>4.5</v>
@@ -696,16 +763,16 @@
         <v>12.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O2" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>12.3</v>
@@ -714,7 +781,7 @@
         <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
         <v>21.6</v>
@@ -729,37 +796,37 @@
         <v>5.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -786,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,28 +862,28 @@
         <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
         <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O3" t="n">
         <v>20.6</v>
@@ -887,46 +954,46 @@
         <v>26.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
         <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA3" t="n">
         <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -956,16 +1023,16 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>9</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -989,13 +1056,13 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
         <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.366</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>79.8</v>
@@ -1054,13 +1121,13 @@
         <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
         <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
         <v>18.2</v>
@@ -1069,25 +1136,25 @@
         <v>25.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S4" t="n">
         <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>4.9</v>
@@ -1096,7 +1163,7 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1105,10 +1172,10 @@
         <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1150,7 +1217,7 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1159,16 +1226,16 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>22</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>0.389</v>
+        <v>0.394</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
         <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.43</v>
@@ -1242,7 +1309,7 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
@@ -1251,19 +1318,19 @@
         <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R5" t="n">
         <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1275,28 +1342,28 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,10 +1387,10 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1344,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>11</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>21</v>
@@ -1362,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,13 +1551,13 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1514,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT6" t="n">
         <v>3</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
@@ -1544,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1678,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
         <v>20</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2051,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
@@ -2060,13 +2127,13 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>14</v>
@@ -2409,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
         <v>26</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
@@ -2433,13 +2500,13 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.411</v>
+        <v>0.403</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2516,40 +2583,40 @@
         <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z12" t="n">
         <v>23.6</v>
@@ -2558,13 +2625,13 @@
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.292</v>
+        <v>0.296</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,25 +2765,25 @@
         <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2725,28 +2792,28 @@
         <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
         <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2782,22 +2849,22 @@
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,16 +2873,16 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY13" t="n">
         <v>17</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,76 +2935,76 @@
         <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R14" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
         <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB14" t="n">
         <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="n">
         <v>4</v>
       </c>
-      <c r="AF14" t="n">
-        <v>6</v>
-      </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -2949,28 +3016,28 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.264</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M15" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R15" t="n">
         <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>19.1</v>
@@ -3104,28 +3171,28 @@
         <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3134,28 +3201,28 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>16</v>
@@ -3167,22 +3234,22 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
         <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,40 +3481,40 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.735</v>
       </c>
       <c r="R17" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
@@ -3465,16 +3532,16 @@
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,13 +3556,13 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3522,16 +3589,16 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3543,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>0.254</v>
+        <v>0.257</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
         <v>82.59999999999999</v>
@@ -3608,13 +3675,13 @@
         <v>15.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.733</v>
@@ -3623,16 +3690,16 @@
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
         <v>19.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W18" t="n">
         <v>7.6</v>
@@ -3641,7 +3708,7 @@
         <v>3.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
         <v>23.1</v>
@@ -3650,28 +3717,28 @@
         <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" t="n">
         <v>27</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3698,13 +3765,13 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
@@ -3713,13 +3780,13 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.425</v>
+        <v>0.431</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J19" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
         <v>0.349</v>
@@ -3799,16 +3866,16 @@
         <v>27.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3817,10 +3884,10 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.4</v>
@@ -3832,16 +3899,16 @@
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3850,19 +3917,19 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3874,10 +3941,10 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,13 +3959,13 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>10</v>
@@ -3910,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.463</v>
@@ -3978,28 +4045,28 @@
         <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
         <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
@@ -4014,19 +4081,19 @@
         <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG20" t="n">
         <v>3</v>
@@ -4038,19 +4105,19 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4059,19 +4126,19 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>0.278</v>
+        <v>0.282</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
         <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4154,19 +4221,19 @@
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
@@ -4178,7 +4245,7 @@
         <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4193,7 +4260,7 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB21" t="n">
         <v>95.5</v>
@@ -4202,7 +4269,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4235,16 +4302,16 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
         <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.635</v>
+        <v>0.63</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>78.5</v>
@@ -4333,7 +4400,7 @@
         <v>9.6</v>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.386</v>
@@ -4345,13 +4412,13 @@
         <v>28.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
         <v>42.1</v>
@@ -4369,10 +4436,10 @@
         <v>4.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
         <v>23.5</v>
@@ -4381,7 +4448,7 @@
         <v>104.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4426,13 +4493,13 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4441,16 +4508,16 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>3</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,10 +4573,10 @@
         <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
@@ -4518,25 +4585,25 @@
         <v>11.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O23" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P23" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.705</v>
       </c>
       <c r="R23" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S23" t="n">
         <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
         <v>20.3</v>
@@ -4545,37 +4612,37 @@
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB23" t="n">
         <v>96.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
         <v>16</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>23</v>
@@ -4629,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4638,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,19 +4758,19 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N24" t="n">
         <v>0.391</v>
       </c>
       <c r="O24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P24" t="n">
         <v>23.6</v>
@@ -4715,13 +4782,13 @@
         <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="V24" t="n">
         <v>14.5</v>
@@ -4733,40 +4800,40 @@
         <v>6.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4778,16 +4845,16 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4817,7 +4884,7 @@
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444</v>
+        <v>0.451</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5064,22 +5131,22 @@
         <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q26" t="n">
         <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T26" t="n">
         <v>40.4</v>
@@ -5088,10 +5155,10 @@
         <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.2</v>
@@ -5100,19 +5167,19 @@
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5133,13 +5200,13 @@
         <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
         <v>12</v>
@@ -5148,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,28 +5301,28 @@
         <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R27" t="n">
         <v>9.699999999999999</v>
@@ -5270,7 +5337,7 @@
         <v>21.1</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5282,19 +5349,19 @@
         <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,19 +5373,19 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="n">
         <v>8</v>
@@ -5342,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>17</v>
@@ -5351,10 +5418,10 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
@@ -5369,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
-        <v>0.233</v>
+        <v>0.236</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5428,25 +5495,25 @@
         <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
         <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U28" t="n">
         <v>21.4</v>
@@ -5461,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
         <v>20.6</v>
@@ -5473,10 +5540,10 @@
         <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="n">
         <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
         <v>38.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.467</v>
@@ -5607,28 +5674,28 @@
         <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O29" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>23.4</v>
@@ -5643,31 +5710,31 @@
         <v>4.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5676,10 +5743,10 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,13 +5764,13 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>26</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5762,40 +5829,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="n">
         <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M30" t="n">
         <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
         <v>29</v>
@@ -5804,7 +5871,7 @@
         <v>0.757</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
@@ -5816,31 +5883,31 @@
         <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z30" t="n">
         <v>24.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5903,7 +5970,7 @@
         <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.528</v>
+        <v>0.521</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
@@ -5974,13 +6041,13 @@
         <v>19.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O31" t="n">
         <v>19.1</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q31" t="n">
         <v>0.787</v>
@@ -5998,7 +6065,7 @@
         <v>19.3</v>
       </c>
       <c r="V31" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6016,16 +6083,16 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
@@ -6037,10 +6104,10 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2007-08</t>
+          <t>2008-03-28</t>
         </is>
       </c>
     </row>
